--- a/medicine/Enfance/Alice_et_les_Chaussons_rouges/Alice_et_les_Chaussons_rouges.xlsx
+++ b/medicine/Enfance/Alice_et_les_Chaussons_rouges/Alice_et_les_Chaussons_rouges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Alice et les Chaussons rouges (titre original : The Scarlet Slipper Mystery, littéralement : Le Mystère du chausson écarlate), est le trente-deuxième[1] roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. L'auteur de ce roman est Charles S. Strong. 
+Alice et les Chaussons rouges (titre original : The Scarlet Slipper Mystery, littéralement : Le Mystère du chausson écarlate), est le trente-deuxième roman de la série américaine Alice (Nancy Drew en VO) écrit par Caroline Quine, nom de plume collectif de plusieurs auteurs. L'auteur de ce roman est Charles S. Strong. 
 Aux États-Unis, le roman a été publié pour la première fois en 1954 par Grosset &amp; Dunlap, New York. En France, il est paru pour la première fois en 1961 aux éditions Hachette Jeunesse dans la collection « Bibliothèque verte » sous le no 196. Il n'a plus été réédité en France depuis 1974. 
-Dans ce roman, Alice Roy fait la connaissance de Franz et Nora Toulaine, deux jeunes Caréniens[2] récemment réfugiés en Amérique. D'anciens compatriotes les accusent d'avoir détourné une fortune confiée à leur garde au moment de leur émigration. Les Toulaine finissent par disparaître : coupables, ont-ils pris la fuite ? Ou bien, innocents, ont-ils été enlevés ? Alice va tirer l'affaire au clair. 
+Dans ce roman, Alice Roy fait la connaissance de Franz et Nora Toulaine, deux jeunes Caréniens récemment réfugiés en Amérique. D'anciens compatriotes les accusent d'avoir détourné une fortune confiée à leur garde au moment de leur émigration. Les Toulaine finissent par disparaître : coupables, ont-ils pris la fuite ? Ou bien, innocents, ont-ils été enlevés ? Alice va tirer l'affaire au clair. 
 </t>
         </is>
       </c>
@@ -514,10 +526,12 @@
           <t>Résumé détaillé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur les éditions cartonnées non abrégées parues de 1961 à 1974 en langue française.
-Alice Roy s'en revient de New York où elle a passé des vacances chez sa tante Cécile Roy. Dans l'avion quadrimoteur qui la ramène à River City, et alors que l’appareil s'approche de l’aérodrome, le passager assis à ses côtés, un homme de nationalité carénienne[2], panique quand il s'aperçoit qu'un des moteurs vient de tomber en panne. La jeune fille le rassure et, de fait, l'appareil se pose sans heurt sur la piste atterrissage. 
+Alice Roy s'en revient de New York où elle a passé des vacances chez sa tante Cécile Roy. Dans l'avion quadrimoteur qui la ramène à River City, et alors que l’appareil s'approche de l’aérodrome, le passager assis à ses côtés, un homme de nationalité carénienne, panique quand il s'aperçoit qu'un des moteurs vient de tomber en panne. La jeune fille le rassure et, de fait, l'appareil se pose sans heurt sur la piste atterrissage. 
 Les cousines germaines Bess et Marion sont venues accueillir leur amie Alice à l’aérodrome. Sur le chemin de retour, elles expliquent qu'elles reviennent tout juste d'un cours à l'école de danse qui s'est récemment ouverte à River City et où elles se sont inscrites. L’école est dirigée par de jeunes danseurs très sympathiques, Franz et Nora Toulaine, un frère et une sœur arrivés récemment de Paris. 
 Bess se rappelle soudain avoir oublié son sac à l'école de danse : le trio retourne donc sur les lieux et trouve Nora Toulaine en pleurs. Compatissante, Alice lui offre de l'aider. Nora explique alors que son frère Franz et elle-même ne sont pas français mais des réfugiés de Carénie. Et elle leur montre une lettre de menaces qu'elle vient de recevoir et qui somme le couple de partir sous peine de mort. Nora explique encore qu'ils avaient dû quitter la France après la réception de la même lettre de menace... Alice remarque, accrochés au mur du bureau de Franz et Nora, une paire de chaussons de danse en satin rouge. « C'est un souvenir de notre mère décédée, explique Nora. Elle était la célèbre danseuse de ballet Lise Bellini. »
 Avec l'accord de son père, Alice décide de cacher Franz et Nora chez elle. Peu de temps après, Mme Bond, une voisine des Roy, vient se plaindre auprès d'Alice de ce que M. Hilly le bijoutier lui a vendu une statuette fêlée qu'il ne veut ni rembourser ni échanger. Alice se rend chez le bijoutier, qu'elle sait honnête homme. Celui-ci montre à la jeune fille un lot de six statuettes identiques à celle vendue à Mme Bond, lot qu'il a acheté tout récemment. En les examinant, Alice remarque que toutes les statuettes sont fêlées. Une idée lui vient ; elle insère la lame dans la fêlure : la statuette s'ouvre en deux, découvrant une cavité. Alice ouvre alors toutes les autres statuettes. Dans l'une d'elles se trouve un papier qui porte le numéro suivant : 10 561-B-24. Perplexe, Alice se demande ce que cela peut bien signifier. Elle pense à un code et, à l'aide d'un manuel de décodage, tente vainement de le déchiffrer.
@@ -559,16 +573,55 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Personnages récurrents
-Alice Roy, dix-huit ans, détective amateur blonde, fille de James Roy, orpheline de mère.
-James Roy, avoué[3] de renom, père d'Alice Roy, veuf.
+          <t>Personnages récurrents</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Alice Roy, dix-huit ans, détective amateur blonde, fille de James Roy, orpheline de mère.
+James Roy, avoué de renom, père d'Alice Roy, veuf.
 Bess Taylor, jeune fille blonde et rondelette, une des meilleures amies d'Alice.
 Marion Webb, jeune fille brune et sportive, cousine germaine de Bess Taylor et une des meilleures amies d'Alice.
 Ned Nickerson, jeune homme brun et athlétique, ami et chevalier servant d'Alice, étudiant à l'université d'Emerson.
 Sarah, la fidèle vieille gouvernante des Roy, qui a élevé Alice à la mort de sa mère.
-Togo, le petit chien fox-terrier d'Alice.
-Personnages spécifiques à ce roman
-Franz Toulaine (Henri Fontaine en VO), jeune réfugié de Carénie (Centrovia en VO), peintre et danseur, récemment arrivé aux États-Unis.
+Togo, le petit chien fox-terrier d'Alice.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alice_et_les_Chaussons_rouges</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alice_et_les_Chaussons_rouges</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Personnages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Personnages spécifiques à ce roman</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Franz Toulaine (Henri Fontaine en VO), jeune réfugié de Carénie (Centrovia en VO), peintre et danseur, récemment arrivé aux États-Unis.
 Nora Toulaine (Helene Fontaine en VO), danseuse de ballet carénienne, sœur de Franz, récemment arrivée avec lui aux États-Unis.
 Mme Ludo (Mrs. Judson en VO).
 David Ludo (Mr. Judson en VO), époux de Mme Ludo.
@@ -580,37 +633,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Alice_et_les_Chaussons_rouges</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Alice_et_les_Chaussons_rouges</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Remarque</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les protagonistes de ce roman, Franz et Nora Toulaine, sont décrits comme étant des réfugiés originaires de Carénie (« Centrovia » en version originale). C'est un pays fictif choisi par l'auteur pour désigner un pays d'Europe centrale. À l'époque où est écrit le roman (1954), de nombreux pays d'Europe centrale et d'Europe de l'Est sont sous dictature communiste.La situation politique mondiale n'étant plus la même aujourd'hui, cela peut expliquer la raison pour laquelle ce roman n'a plus été réédité en France.[réf. nécessaire]
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -632,10 +654,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Remarque</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les protagonistes de ce roman, Franz et Nora Toulaine, sont décrits comme étant des réfugiés originaires de Carénie (« Centrovia » en version originale). C'est un pays fictif choisi par l'auteur pour désigner un pays d'Europe centrale. À l'époque où est écrit le roman (1954), de nombreux pays d'Europe centrale et d'Europe de l'Est sont sous dictature communiste.La situation politique mondiale n'étant plus la même aujourd'hui, cela peut expliquer la raison pour laquelle ce roman n'a plus été réédité en France.[réf. nécessaire]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alice_et_les_Chaussons_rouges</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alice_et_les_Chaussons_rouges</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Éditions françaises</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">1961 : Alice et les Chaussons rouges — Hachette, coll. « Bibliothèque verte » no 196, cartonné, texte original. Illustré par Albert Chazelle. Traduit par Hélène Commin. 252 p. 
 1975 : Alice et les Chaussons rouges — Hachette, coll. « Idéal-Bibliothèque », cartonné, texte abrégé. Couverture illustrée par Guy Maynard. Traduit par Hélène Commin. 25 chapitres. 189 p. </t>
